--- a/dummy_metrics-analytics.xlsx
+++ b/dummy_metrics-analytics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benjamzino/upenn/Projects/Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamzino/upenn/Projects/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89818B6-06D6-4948-8646-B665BBE290A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81963D2C-B8A9-FD4E-814D-A0B0EA8E75C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{ADAF1DAA-1E8B-B148-BB34-F0E835D49DE3}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{ADAF1DAA-1E8B-B148-BB34-F0E835D49DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>seg_votes</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>row</t>
+  </si>
+  <si>
+    <t>seg_index_votes</t>
+  </si>
+  <si>
+    <t>segment_avg_votes</t>
   </si>
 </sst>
 </file>
@@ -154,8 +160,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -218,14 +224,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC3C06-17E5-2440-A34E-DC48590D6337}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,9 +571,11 @@
     <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -613,8 +621,14 @@
       <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -646,12 +660,12 @@
         <v>96</v>
       </c>
       <c r="J2" s="5">
-        <f>IF($C2=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
-        <v>2.8134794623747461</v>
+        <f>IF($C2=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>518.5</v>
       </c>
       <c r="K2" s="5">
         <f>((H2-J2)/H2)*100</f>
-        <v>-58.452584321342336</v>
+        <v>-29101.444712615739</v>
       </c>
       <c r="L2" s="5">
         <f>((H2-$C$27)/H2)*100</f>
@@ -662,15 +676,23 @@
         <v>112.75</v>
       </c>
       <c r="N2" s="5">
-        <f>((I2-M2)/M2)*100</f>
+        <f t="shared" ref="N2:N21" si="1">((I2-M2)/M2)*100</f>
         <v>-14.855875831485587</v>
       </c>
       <c r="O2" s="5">
         <f>((I2-$C$26)/I2)*100</f>
         <v>34.114583333333329</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="7">
+        <f>IF($C2=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>518.5</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>((D2-P2)/D2)*100</f>
+        <v>-29.301745635910226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -688,11 +710,11 @@
         <v>5091</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F21" si="1">D3/E3</f>
+        <f t="shared" ref="F3:F21" si="2">D3/E3</f>
         <v>0.17187193085837754</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G21" si="2">D3/$C$24</f>
+        <f t="shared" ref="G3:G21" si="3">D3/$C$24</f>
         <v>8.5792724776938917E-2</v>
       </c>
       <c r="H3" s="6">
@@ -702,31 +724,39 @@
         <v>59</v>
       </c>
       <c r="J3" s="5">
-        <f>IF($C3=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" ref="J2:J21" si="4">IF($C3=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
         <v>2.5633451054715097</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K21" si="3">((H3-J3)/H3)*100</f>
+        <f t="shared" ref="K3:K21" si="5">((H3-J3)/H3)*100</f>
         <v>43.690434902495817</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L21" si="4">((H3-$C$27)/H3)*100</f>
+        <f t="shared" ref="L3:L21" si="6">((H3-$C$27)/H3)*100</f>
         <v>36.555420337058855</v>
       </c>
       <c r="M3" s="7">
-        <f>IF($C3=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" ref="M2:M21" si="7">IF($C3=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
         <v>49.333333333333336</v>
       </c>
       <c r="N3" s="5">
-        <f>((I3-M3)/M3)*100</f>
+        <f t="shared" si="1"/>
         <v>19.594594594594589</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O21" si="5">((I3-$C$26)/I3)*100</f>
+        <f t="shared" ref="O3:O21" si="8">((I3-$C$26)/I3)*100</f>
         <v>-7.2033898305084749</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P21" si="9">IF($C3=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q21" si="10">((D3-P3)/D3)*100</f>
+        <v>56.495238095238101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -744,11 +774,11 @@
         <v>5091</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16676487919858574</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3243455240709877E-2</v>
       </c>
       <c r="H4" s="6">
@@ -758,31 +788,39 @@
         <v>79</v>
       </c>
       <c r="J4" s="5">
-        <f>IF($C4=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C4=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C4=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C4=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-43.013830495658148</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-32.933481390429115</v>
       </c>
       <c r="M4" s="7">
-        <f>IF($C4=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C4=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C4=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C4=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N4" s="5">
-        <f>((I4-M4)/M4)*100</f>
+        <f t="shared" si="1"/>
         <v>-2.4691358024691357</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19.936708860759495</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="7">
+        <f t="shared" si="9"/>
+        <v>561.4</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="10"/>
+        <v>33.875147232037698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -800,11 +838,11 @@
         <v>3034</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25346077785102178</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5399548975389738E-2</v>
       </c>
       <c r="H5" s="6">
@@ -814,31 +852,39 @@
         <v>24</v>
       </c>
       <c r="J5" s="5">
-        <f>IF($C5=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C5=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C5=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C5=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.299186265424527</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31.746207445723858</v>
       </c>
       <c r="M5" s="7">
-        <f>IF($C5=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C5=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C5=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C5=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="N5" s="5">
-        <f>((I5-M5)/M5)*100</f>
+        <f t="shared" si="1"/>
         <v>6.1946902654867193</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-163.54166666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="7">
+        <f t="shared" si="9"/>
+        <v>606.79999999999995</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="10"/>
+        <v>21.0923276983095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -852,15 +898,15 @@
         <v>521</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E21" si="6">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
+        <f t="shared" ref="E6:E21" si="11">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
         <v>2074</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25120540019286403</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.108343955289734E-2</v>
       </c>
       <c r="H6" s="6">
@@ -870,31 +916,39 @@
         <v>131</v>
       </c>
       <c r="J6" s="5">
-        <f>IF($C6=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C6=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C6=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C6=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
-        <v>2.8134794623747461</v>
+        <f>IF($C6=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C6=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C6=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>518.5</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
-        <v>11.325865925933737</v>
+        <f t="shared" si="5"/>
+        <v>-16241.878137825663</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.9724952965250786</v>
       </c>
       <c r="M6" s="7">
-        <f>IF($C6=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C6=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C6=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C6=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
       <c r="N6" s="5">
-        <f>((I6-M6)/M6)*100</f>
+        <f t="shared" si="1"/>
         <v>16.186252771618626</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>51.717557251908396</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="7">
+        <f t="shared" si="9"/>
+        <v>518.5</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="10"/>
+        <v>0.47984644913627633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -908,15 +962,15 @@
         <v>570</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2074</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27483124397299902</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5887832140405921E-2</v>
       </c>
       <c r="H7" s="6">
@@ -926,31 +980,39 @@
         <v>117</v>
       </c>
       <c r="J7" s="5">
-        <f>IF($C7=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C7=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C7=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C7=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
-        <v>2.8134794623747461</v>
+        <f>IF($C7=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C7=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C7=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C7=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>518.5</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>10.7620178449947</v>
+        <f t="shared" si="5"/>
+        <v>-16345.790476222515</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3936829475163712</v>
       </c>
       <c r="M7" s="7">
-        <f>IF($C7=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C7=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C7=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C7=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
       <c r="N7" s="5">
-        <f>((I7-M7)/M7)*100</f>
+        <f t="shared" si="1"/>
         <v>3.7694013303769403</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45.940170940170937</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="7">
+        <f t="shared" si="9"/>
+        <v>518.5</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="10"/>
+        <v>9.0350877192982466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -964,15 +1026,15 @@
         <v>582</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2074</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28061716489874639</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7064418080203939E-2</v>
       </c>
       <c r="H8" s="6">
@@ -982,31 +1044,39 @@
         <v>107</v>
       </c>
       <c r="J8" s="5">
-        <f>IF($C8=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C8=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C8=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C8=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
-        <v>2.8134794623747461</v>
+        <f>IF($C8=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C8=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C8=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C8=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
+        <v>518.5</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>10.759920219699481</v>
+        <f t="shared" si="5"/>
+        <v>-16346.177050473412</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3915296522130607</v>
       </c>
       <c r="M8" s="7">
-        <f>IF($C8=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C8=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C8=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C8=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
       <c r="N8" s="5">
-        <f>((I8-M8)/M8)*100</f>
+        <f t="shared" si="1"/>
         <v>-5.0997782705099777</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.887850467289724</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="7">
+        <f t="shared" si="9"/>
+        <v>518.5</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="10"/>
+        <v>10.9106529209622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1020,15 +1090,15 @@
         <v>99</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9446081319976428E-2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7068340033336607E-3</v>
       </c>
       <c r="H9" s="6">
@@ -1038,31 +1108,39 @@
         <v>82</v>
       </c>
       <c r="J9" s="5">
-        <f>IF($C9=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C9=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C9=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C9=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.245568934677145</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40.739308595494251</v>
       </c>
       <c r="M9" s="7">
-        <f>IF($C9=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C9=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C9=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C9=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N9" s="5">
-        <f>((I9-M9)/M9)*100</f>
+        <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="7">
+        <f t="shared" si="9"/>
+        <v>561.4</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="10"/>
+        <v>-467.07070707070704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1076,15 +1154,15 @@
         <v>288</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6570418385385977E-2</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8238062555152467E-2</v>
       </c>
       <c r="H10" s="6">
@@ -1094,31 +1172,39 @@
         <v>82</v>
       </c>
       <c r="J10" s="5">
-        <f>IF($C10=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C10=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C10=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C10=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.972326670617745</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.17696908181567</v>
       </c>
       <c r="M10" s="7">
-        <f>IF($C10=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C10=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C10=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C10=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N10" s="5">
-        <f>((I10-M10)/M10)*100</f>
+        <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="7">
+        <f t="shared" si="9"/>
+        <v>561.4</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
+        <v>-94.930555555555557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1132,15 +1218,15 @@
         <v>933</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18326458456098998</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.147955681929601E-2</v>
       </c>
       <c r="H11" s="6">
@@ -1150,31 +1236,39 @@
         <v>85</v>
       </c>
       <c r="J11" s="5">
-        <f>IF($C11=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C11=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C11=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C11=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-23.88103672206655</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-15.149265162993174</v>
       </c>
       <c r="M11" s="7">
-        <f>IF($C11=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C11=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C11=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C11=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N11" s="5">
-        <f>((I11-M11)/M11)*100</f>
+        <f t="shared" si="1"/>
         <v>4.9382716049382713</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25.588235294117645</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="7">
+        <f t="shared" si="9"/>
+        <v>561.4</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="10"/>
+        <v>39.828510182207935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1188,15 +1282,15 @@
         <v>322</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3248870555882936E-2</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1571722717913524E-2</v>
       </c>
       <c r="H12" s="6">
@@ -1206,31 +1300,39 @@
         <v>50</v>
       </c>
       <c r="J12" s="5">
-        <f>IF($C12=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C12=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C12=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C12=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-57.994143394241803</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-78.013664277055668</v>
       </c>
       <c r="M12" s="7">
-        <f>IF($C12=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C12=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C12=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C12=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
       <c r="N12" s="5">
-        <f>((I12-M12)/M12)*100</f>
+        <f t="shared" si="1"/>
         <v>1.3513513513513467</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-26.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="7">
+        <f t="shared" si="9"/>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>-18.219461697722572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1244,15 +1346,15 @@
         <v>497</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7623256727558436E-2</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8730267673301304E-2</v>
       </c>
       <c r="H13" s="6">
@@ -1262,31 +1364,39 @@
         <v>53</v>
       </c>
       <c r="J13" s="5">
-        <f>IF($C13=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C13=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C13=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C13=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31.018234511381991</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.277518779363991</v>
       </c>
       <c r="M13" s="7">
-        <f>IF($C13=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C13=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C13=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C13=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
       <c r="N13" s="5">
-        <f>((I13-M13)/M13)*100</f>
+        <f t="shared" si="1"/>
         <v>7.4324324324324271</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-19.339622641509436</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="7">
+        <f t="shared" si="9"/>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="10"/>
+        <v>23.407109322602278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1300,15 +1410,15 @@
         <v>463</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0944804557061484E-2</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5396607510540248E-2</v>
       </c>
       <c r="H14" s="6">
@@ -1318,31 +1428,39 @@
         <v>35</v>
       </c>
       <c r="J14" s="5">
-        <f>IF($C14=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C14=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C14=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C14=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-10.595078532651714</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24.608639014423055</v>
       </c>
       <c r="M14" s="7">
-        <f>IF($C14=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C14=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C14=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C14=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
       <c r="N14" s="5">
-        <f>((I14-M14)/M14)*100</f>
+        <f t="shared" si="1"/>
         <v>-29.054054054054056</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-80.714285714285722</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="7">
+        <f t="shared" si="9"/>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="10"/>
+        <v>17.782577393808491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1356,15 +1474,15 @@
         <v>941</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3034</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31015161502966382</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.2263947445828026E-2</v>
       </c>
       <c r="H15" s="6">
@@ -1374,31 +1492,39 @@
         <v>16</v>
       </c>
       <c r="J15" s="5">
-        <f>IF($C15=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C15=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C15=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C15=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-174.22813038881711</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-153.9606956242398</v>
       </c>
       <c r="M15" s="7">
-        <f>IF($C15=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C15=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C15=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C15=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="N15" s="5">
-        <f>((I15-M15)/M15)*100</f>
+        <f t="shared" si="1"/>
         <v>-29.203539823008857</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-295.3125</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="7">
+        <f t="shared" si="9"/>
+        <v>606.79999999999995</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="10"/>
+        <v>35.515409139213602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1412,15 +1538,15 @@
         <v>346</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3034</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11404087013843112</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.392489459750956E-2</v>
       </c>
       <c r="H16" s="6">
@@ -1430,31 +1556,39 @@
         <v>27</v>
       </c>
       <c r="J16" s="5">
-        <f>IF($C16=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C16=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C16=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C16=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72644208614439842</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0634733236538185</v>
       </c>
       <c r="M16" s="7">
-        <f>IF($C16=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C16=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C16=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C16=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="N16" s="5">
-        <f>((I16-M16)/M16)*100</f>
+        <f t="shared" si="1"/>
         <v>19.469026548672559</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-134.25925925925927</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="7">
+        <f t="shared" si="9"/>
+        <v>606.79999999999995</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="10"/>
+        <v>-75.37572254335258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1468,15 +1602,15 @@
         <v>537</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3034</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17699406723796968</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2652220805961367E-2</v>
       </c>
       <c r="H17" s="6">
@@ -1486,31 +1620,39 @@
         <v>28</v>
       </c>
       <c r="J17" s="5">
-        <f>IF($C17=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C17=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C17=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C17=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-10.519170591548548</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.3510075477955894</v>
       </c>
       <c r="M17" s="7">
-        <f>IF($C17=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C17=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C17=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C17=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="N17" s="5">
-        <f>((I17-M17)/M17)*100</f>
+        <f t="shared" si="1"/>
         <v>23.893805309734507</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-125.89285714285714</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="7">
+        <f t="shared" si="9"/>
+        <v>606.79999999999995</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="10"/>
+        <v>-12.998137802607069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1524,15 +1666,15 @@
         <v>638</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12531919072873698</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2555152465928035E-2</v>
       </c>
       <c r="H18" s="6">
@@ -1542,31 +1684,39 @@
         <v>77</v>
       </c>
       <c r="J18" s="5">
-        <f>IF($C18=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C18=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C18=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C18=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-26.740133662619552</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-17.806838270595339</v>
       </c>
       <c r="M18" s="7">
-        <f>IF($C18=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C18=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C18=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C18=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="N18" s="5">
-        <f>((I18-M18)/M18)*100</f>
+        <f t="shared" si="1"/>
         <v>-4.9382716049382713</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.857142857142858</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="7">
+        <f t="shared" si="9"/>
+        <v>561.4</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="10"/>
+        <v>12.006269592476492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1580,15 +1730,15 @@
         <v>441</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3034</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14535266974291364</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3239533287577216E-2</v>
       </c>
       <c r="H19" s="6">
@@ -1598,31 +1748,39 @@
         <v>18</v>
       </c>
       <c r="J19" s="5">
-        <f>IF($C19=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C19=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C19=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C19=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.813114156972933</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32.222152363020548</v>
       </c>
       <c r="M19" s="7">
-        <f>IF($C19=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C19=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C19=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C19=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
       <c r="N19" s="5">
-        <f>((I19-M19)/M19)*100</f>
+        <f t="shared" si="1"/>
         <v>-20.353982300884958</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-251.38888888888889</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="7">
+        <f t="shared" si="9"/>
+        <v>606.79999999999995</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="10"/>
+        <v>-37.596371882086153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1636,15 +1794,15 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6784521704969556E-3</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3336601627610551E-3</v>
       </c>
       <c r="H20" s="6">
@@ -1654,31 +1812,39 @@
         <v>62</v>
       </c>
       <c r="J20" s="5">
-        <f>IF($C20=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C20=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C20=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C20=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-87.489573213421437</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-111.24647549865354</v>
       </c>
       <c r="M20" s="7">
-        <f>IF($C20=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C20=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C20=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C20=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
       <c r="N20" s="5">
-        <f>((I20-M20)/M20)*100</f>
+        <f t="shared" si="1"/>
         <v>25.67567567567567</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.0161290322580645</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="7">
+        <f t="shared" si="9"/>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="10"/>
+        <v>-1019.607843137255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1692,15 +1858,15 @@
         <v>93</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5091</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8267530936947555E-2</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.11854103343465E-3</v>
       </c>
       <c r="H21" s="6">
@@ -1710,31 +1876,39 @@
         <v>37</v>
       </c>
       <c r="J21" s="5">
-        <f>IF($C21=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C21=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C21=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C21=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-42.056127493178877</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-60.056134011047135</v>
       </c>
       <c r="M21" s="7">
-        <f>IF($C21=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C21=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C21=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C21=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
       <c r="N21" s="5">
-        <f>((I21-M21)/M21)*100</f>
+        <f t="shared" si="1"/>
         <v>-25.000000000000007</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-70.945945945945937</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="7">
+        <f t="shared" si="9"/>
+        <v>380.66666666666669</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="10"/>
+        <v>-309.31899641577064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1743,7 +1917,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1926,7 @@
         <v>509.95</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1761,7 +1935,7 @@
         <v>63.25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
@@ -1770,7 +1944,7 @@
         <v>2.8881479099703751</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
     </row>
   </sheetData>

--- a/dummy_metrics-analytics.xlsx
+++ b/dummy_metrics-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamzino/upenn/Projects/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81963D2C-B8A9-FD4E-814D-A0B0EA8E75C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30208D-440C-8449-BC12-0B1B86A64AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{ADAF1DAA-1E8B-B148-BB34-F0E835D49DE3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>seg_votes</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>segment_avg_votes</t>
+  </si>
+  <si>
+    <t>total_index_votes</t>
   </si>
 </sst>
 </file>
@@ -195,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,7 +226,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +241,12 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -548,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC3C06-17E5-2440-A34E-DC48590D6337}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,20 +577,21 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -594,7 +610,7 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -609,7 +625,7 @@
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -618,7 +634,7 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -627,8 +643,11 @@
       <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -649,7 +668,7 @@
         <f>D2/E2</f>
         <v>0.19334619093539054</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="13">
         <f>D2/$C$24</f>
         <v>3.9317580154917146E-2</v>
       </c>
@@ -667,7 +686,7 @@
         <f>((H2-J2)/H2)*100</f>
         <v>-29101.444712615739</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="15">
         <f>((H2-$C$27)/H2)*100</f>
         <v>-62.657842844467893</v>
       </c>
@@ -679,7 +698,7 @@
         <f t="shared" ref="N2:N21" si="1">((I2-M2)/M2)*100</f>
         <v>-14.855875831485587</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="15">
         <f>((I2-$C$26)/I2)*100</f>
         <v>34.114583333333329</v>
       </c>
@@ -691,8 +710,12 @@
         <f>((D2-P2)/D2)*100</f>
         <v>-29.301745635910226</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="15">
+        <f>((D2-$C$25)/D2)*100</f>
+        <v>-27.169576059850371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -713,7 +736,7 @@
         <f t="shared" ref="F3:F21" si="2">D3/E3</f>
         <v>0.17187193085837754</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G21" si="3">D3/$C$24</f>
         <v>8.5792724776938917E-2</v>
       </c>
@@ -731,7 +754,7 @@
         <f t="shared" ref="K3:K21" si="5">((H3-J3)/H3)*100</f>
         <v>43.690434902495817</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L21" si="6">((H3-$C$27)/H3)*100</f>
         <v>36.555420337058855</v>
       </c>
@@ -743,7 +766,7 @@
         <f t="shared" si="1"/>
         <v>19.594594594594589</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="15">
         <f t="shared" ref="O3:O21" si="8">((I3-$C$26)/I3)*100</f>
         <v>-7.2033898305084749</v>
       </c>
@@ -755,8 +778,12 @@
         <f t="shared" ref="Q3:Q21" si="10">((D3-P3)/D3)*100</f>
         <v>56.495238095238101</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R21" si="11">((D3-$C$25)/D3)*100</f>
+        <v>41.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -777,7 +804,7 @@
         <f t="shared" si="2"/>
         <v>0.16676487919858574</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="13">
         <f t="shared" si="3"/>
         <v>8.3243455240709877E-2</v>
       </c>
@@ -795,7 +822,7 @@
         <f t="shared" si="5"/>
         <v>-43.013830495658148</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="15">
         <f t="shared" si="6"/>
         <v>-32.933481390429115</v>
       </c>
@@ -807,7 +834,7 @@
         <f t="shared" si="1"/>
         <v>-2.4691358024691357</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="15">
         <f t="shared" si="8"/>
         <v>19.936708860759495</v>
       </c>
@@ -819,8 +846,12 @@
         <f t="shared" si="10"/>
         <v>33.875147232037698</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="15">
+        <f t="shared" si="11"/>
+        <v>39.93521790341579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -841,7 +872,7 @@
         <f t="shared" si="2"/>
         <v>0.25346077785102178</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="13">
         <f t="shared" si="3"/>
         <v>7.5399548975389738E-2</v>
       </c>
@@ -859,7 +890,7 @@
         <f t="shared" si="5"/>
         <v>26.299186265424527</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="15">
         <f t="shared" si="6"/>
         <v>31.746207445723858</v>
       </c>
@@ -871,7 +902,7 @@
         <f t="shared" si="1"/>
         <v>6.1946902654867193</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="15">
         <f t="shared" si="8"/>
         <v>-163.54166666666669</v>
       </c>
@@ -883,8 +914,12 @@
         <f t="shared" si="10"/>
         <v>21.0923276983095</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="15">
+        <f t="shared" si="11"/>
+        <v>33.686605981794536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -898,14 +933,14 @@
         <v>521</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E21" si="11">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
+        <f t="shared" ref="E6:E21" si="12">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
         <v>2074</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>0.25120540019286403</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="13">
         <f t="shared" si="3"/>
         <v>5.108343955289734E-2</v>
       </c>
@@ -923,7 +958,7 @@
         <f t="shared" si="5"/>
         <v>-16241.878137825663</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="15">
         <f t="shared" si="6"/>
         <v>8.9724952965250786</v>
       </c>
@@ -935,7 +970,7 @@
         <f t="shared" si="1"/>
         <v>16.186252771618626</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="15">
         <f t="shared" si="8"/>
         <v>51.717557251908396</v>
       </c>
@@ -947,8 +982,12 @@
         <f t="shared" si="10"/>
         <v>0.47984644913627633</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="15">
+        <f t="shared" si="11"/>
+        <v>2.1209213051823439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -962,14 +1001,14 @@
         <v>570</v>
       </c>
       <c r="E7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2074</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>0.27483124397299902</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="13">
         <f t="shared" si="3"/>
         <v>5.5887832140405921E-2</v>
       </c>
@@ -987,7 +1026,7 @@
         <f t="shared" si="5"/>
         <v>-16345.790476222515</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="15">
         <f t="shared" si="6"/>
         <v>8.3936829475163712</v>
       </c>
@@ -999,7 +1038,7 @@
         <f t="shared" si="1"/>
         <v>3.7694013303769403</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="15">
         <f t="shared" si="8"/>
         <v>45.940170940170937</v>
       </c>
@@ -1011,8 +1050,12 @@
         <f t="shared" si="10"/>
         <v>9.0350877192982466</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="15">
+        <f t="shared" si="11"/>
+        <v>10.535087719298247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1026,14 +1069,14 @@
         <v>582</v>
       </c>
       <c r="E8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2074</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>0.28061716489874639</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="13">
         <f t="shared" si="3"/>
         <v>5.7064418080203939E-2</v>
       </c>
@@ -1051,7 +1094,7 @@
         <f t="shared" si="5"/>
         <v>-16346.177050473412</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="15">
         <f t="shared" si="6"/>
         <v>8.3915296522130607</v>
       </c>
@@ -1063,7 +1106,7 @@
         <f t="shared" si="1"/>
         <v>-5.0997782705099777</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="15">
         <f t="shared" si="8"/>
         <v>40.887850467289724</v>
       </c>
@@ -1075,8 +1118,12 @@
         <f t="shared" si="10"/>
         <v>10.9106529209622</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="15">
+        <f t="shared" si="11"/>
+        <v>12.379725085910655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1090,14 +1137,14 @@
         <v>99</v>
       </c>
       <c r="E9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>1.9446081319976428E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <f t="shared" si="3"/>
         <v>9.7068340033336607E-3</v>
       </c>
@@ -1115,7 +1162,7 @@
         <f t="shared" si="5"/>
         <v>36.245568934677145</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="15">
         <f t="shared" si="6"/>
         <v>40.739308595494251</v>
       </c>
@@ -1127,7 +1174,7 @@
         <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="15">
         <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
@@ -1139,8 +1186,12 @@
         <f t="shared" si="10"/>
         <v>-467.07070707070704</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="15">
+        <f t="shared" si="11"/>
+        <v>-415.1010101010101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1154,14 +1205,14 @@
         <v>288</v>
       </c>
       <c r="E10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>5.6570418385385977E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="13">
         <f t="shared" si="3"/>
         <v>2.8238062555152467E-2</v>
       </c>
@@ -1179,7 +1230,7 @@
         <f t="shared" si="5"/>
         <v>11.972326670617745</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="15">
         <f t="shared" si="6"/>
         <v>18.17696908181567</v>
       </c>
@@ -1191,7 +1242,7 @@
         <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="15">
         <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
@@ -1203,8 +1254,12 @@
         <f t="shared" si="10"/>
         <v>-94.930555555555557</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="15">
+        <f t="shared" si="11"/>
+        <v>-77.065972222222229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1218,14 +1273,14 @@
         <v>933</v>
       </c>
       <c r="E11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>0.18326458456098998</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="13">
         <f t="shared" si="3"/>
         <v>9.147955681929601E-2</v>
       </c>
@@ -1243,7 +1298,7 @@
         <f t="shared" si="5"/>
         <v>-23.88103672206655</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="15">
         <f t="shared" si="6"/>
         <v>-15.149265162993174</v>
       </c>
@@ -1255,7 +1310,7 @@
         <f t="shared" si="1"/>
         <v>4.9382716049382713</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="15">
         <f t="shared" si="8"/>
         <v>25.588235294117645</v>
       </c>
@@ -1267,8 +1322,12 @@
         <f t="shared" si="10"/>
         <v>39.828510182207935</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="15">
+        <f t="shared" si="11"/>
+        <v>45.342979635584143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1282,14 +1341,14 @@
         <v>322</v>
       </c>
       <c r="E12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>6.3248870555882936E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="13">
         <f t="shared" si="3"/>
         <v>3.1571722717913524E-2</v>
       </c>
@@ -1307,7 +1366,7 @@
         <f t="shared" si="5"/>
         <v>-57.994143394241803</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="15">
         <f t="shared" si="6"/>
         <v>-78.013664277055668</v>
       </c>
@@ -1319,7 +1378,7 @@
         <f t="shared" si="1"/>
         <v>1.3513513513513467</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="15">
         <f t="shared" si="8"/>
         <v>-26.5</v>
       </c>
@@ -1331,8 +1390,12 @@
         <f t="shared" si="10"/>
         <v>-18.219461697722572</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="15">
+        <f t="shared" si="11"/>
+        <v>-58.369565217391305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1346,14 +1409,14 @@
         <v>497</v>
       </c>
       <c r="E13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>9.7623256727558436E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="13">
         <f t="shared" si="3"/>
         <v>4.8730267673301304E-2</v>
       </c>
@@ -1371,7 +1434,7 @@
         <f t="shared" si="5"/>
         <v>31.018234511381991</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="15">
         <f t="shared" si="6"/>
         <v>22.277518779363991</v>
       </c>
@@ -1383,7 +1446,7 @@
         <f t="shared" si="1"/>
         <v>7.4324324324324271</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="15">
         <f t="shared" si="8"/>
         <v>-19.339622641509436</v>
       </c>
@@ -1395,8 +1458,12 @@
         <f t="shared" si="10"/>
         <v>23.407109322602278</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="15">
+        <f t="shared" si="11"/>
+        <v>-2.6056338028168988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1410,14 +1477,14 @@
         <v>463</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>9.0944804557061484E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="13">
         <f t="shared" si="3"/>
         <v>4.5396607510540248E-2</v>
       </c>
@@ -1435,7 +1502,7 @@
         <f t="shared" si="5"/>
         <v>-10.595078532651714</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="15">
         <f t="shared" si="6"/>
         <v>-24.608639014423055</v>
       </c>
@@ -1447,7 +1514,7 @@
         <f t="shared" si="1"/>
         <v>-29.054054054054056</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="15">
         <f t="shared" si="8"/>
         <v>-80.714285714285722</v>
       </c>
@@ -1459,8 +1526,12 @@
         <f t="shared" si="10"/>
         <v>17.782577393808491</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="15">
+        <f t="shared" si="11"/>
+        <v>-10.140388768898486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1474,14 +1545,14 @@
         <v>941</v>
       </c>
       <c r="E15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3034</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>0.31015161502966382</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="13">
         <f t="shared" si="3"/>
         <v>9.2263947445828026E-2</v>
       </c>
@@ -1499,7 +1570,7 @@
         <f t="shared" si="5"/>
         <v>-174.22813038881711</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="15">
         <f t="shared" si="6"/>
         <v>-153.9606956242398</v>
       </c>
@@ -1511,7 +1582,7 @@
         <f t="shared" si="1"/>
         <v>-29.203539823008857</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="15">
         <f t="shared" si="8"/>
         <v>-295.3125</v>
       </c>
@@ -1523,8 +1594,12 @@
         <f t="shared" si="10"/>
         <v>35.515409139213602</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="15">
+        <f t="shared" si="11"/>
+        <v>45.807651434644001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1538,14 +1613,14 @@
         <v>346</v>
       </c>
       <c r="E16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3034</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>0.11404087013843112</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="13">
         <f t="shared" si="3"/>
         <v>3.392489459750956E-2</v>
       </c>
@@ -1563,7 +1638,7 @@
         <f t="shared" si="5"/>
         <v>0.72644208614439842</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="15">
         <f t="shared" si="6"/>
         <v>8.0634733236538185</v>
       </c>
@@ -1575,7 +1650,7 @@
         <f t="shared" si="1"/>
         <v>19.469026548672559</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="15">
         <f t="shared" si="8"/>
         <v>-134.25925925925927</v>
       </c>
@@ -1587,8 +1662,12 @@
         <f t="shared" si="10"/>
         <v>-75.37572254335258</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="15">
+        <f t="shared" si="11"/>
+        <v>-47.384393063583815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1602,14 +1681,14 @@
         <v>537</v>
       </c>
       <c r="E17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3034</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>0.17699406723796968</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="13">
         <f t="shared" si="3"/>
         <v>5.2652220805961367E-2</v>
       </c>
@@ -1627,7 +1706,7 @@
         <f t="shared" si="5"/>
         <v>-10.519170591548548</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="15">
         <f t="shared" si="6"/>
         <v>-2.3510075477955894</v>
       </c>
@@ -1639,7 +1718,7 @@
         <f t="shared" si="1"/>
         <v>23.893805309734507</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="15">
         <f t="shared" si="8"/>
         <v>-125.89285714285714</v>
       </c>
@@ -1651,8 +1730,12 @@
         <f t="shared" si="10"/>
         <v>-12.998137802607069</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="15">
+        <f t="shared" si="11"/>
+        <v>5.0372439478584754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1666,14 +1749,14 @@
         <v>638</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>0.12531919072873698</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="13">
         <f t="shared" si="3"/>
         <v>6.2555152465928035E-2</v>
       </c>
@@ -1691,7 +1774,7 @@
         <f t="shared" si="5"/>
         <v>-26.740133662619552</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="15">
         <f t="shared" si="6"/>
         <v>-17.806838270595339</v>
       </c>
@@ -1703,7 +1786,7 @@
         <f t="shared" si="1"/>
         <v>-4.9382716049382713</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="15">
         <f t="shared" si="8"/>
         <v>17.857142857142858</v>
       </c>
@@ -1715,8 +1798,12 @@
         <f t="shared" si="10"/>
         <v>12.006269592476492</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="15">
+        <f t="shared" si="11"/>
+        <v>20.070532915360502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1730,14 +1817,14 @@
         <v>441</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3034</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
         <v>0.14535266974291364</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="13">
         <f t="shared" si="3"/>
         <v>4.3239533287577216E-2</v>
       </c>
@@ -1755,7 +1842,7 @@
         <f t="shared" si="5"/>
         <v>26.813114156972933</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="15">
         <f t="shared" si="6"/>
         <v>32.222152363020548</v>
       </c>
@@ -1767,7 +1854,7 @@
         <f t="shared" si="1"/>
         <v>-20.353982300884958</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="15">
         <f t="shared" si="8"/>
         <v>-251.38888888888889</v>
       </c>
@@ -1779,8 +1866,12 @@
         <f t="shared" si="10"/>
         <v>-37.596371882086153</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="15">
+        <f t="shared" si="11"/>
+        <v>-15.634920634920633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1794,14 +1885,14 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>6.6784521704969556E-3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="13">
         <f t="shared" si="3"/>
         <v>3.3336601627610551E-3</v>
       </c>
@@ -1819,7 +1910,7 @@
         <f t="shared" si="5"/>
         <v>-87.489573213421437</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="15">
         <f t="shared" si="6"/>
         <v>-111.24647549865354</v>
       </c>
@@ -1831,7 +1922,7 @@
         <f t="shared" si="1"/>
         <v>25.67567567567567</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="15">
         <f t="shared" si="8"/>
         <v>-2.0161290322580645</v>
       </c>
@@ -1843,8 +1934,12 @@
         <f t="shared" si="10"/>
         <v>-1019.607843137255</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="15">
+        <f t="shared" si="11"/>
+        <v>-1399.8529411764705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1858,14 +1953,14 @@
         <v>93</v>
       </c>
       <c r="E21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5091</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>1.8267530936947555E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="13">
         <f t="shared" si="3"/>
         <v>9.11854103343465E-3</v>
       </c>
@@ -1883,7 +1978,7 @@
         <f t="shared" si="5"/>
         <v>-42.056127493178877</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="15">
         <f t="shared" si="6"/>
         <v>-60.056134011047135</v>
       </c>
@@ -1895,7 +1990,7 @@
         <f t="shared" si="1"/>
         <v>-25.000000000000007</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="15">
         <f t="shared" si="8"/>
         <v>-70.945945945945937</v>
       </c>
@@ -1907,8 +2002,12 @@
         <f t="shared" si="10"/>
         <v>-309.31899641577064</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="15">
+        <f t="shared" si="11"/>
+        <v>-448.33333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +2016,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +2025,7 @@
         <v>509.95</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +2034,7 @@
         <v>63.25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
@@ -1944,7 +2043,7 @@
         <v>2.8881479099703751</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
     </row>
   </sheetData>

--- a/dummy_metrics-analytics.xlsx
+++ b/dummy_metrics-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamzino/upenn/Projects/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30208D-440C-8449-BC12-0B1B86A64AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CEF333-28D2-EE43-9AA8-07930DFC8AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{ADAF1DAA-1E8B-B148-BB34-F0E835D49DE3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>seg_votes</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>total_index_votes</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>PRODUCT_RANK_weight</t>
+  </si>
+  <si>
+    <t>PROD</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,8 +243,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -244,9 +251,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -563,10 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC3C06-17E5-2440-A34E-DC48590D6337}">
-  <dimension ref="A1:R29"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,21 +593,23 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -610,44 +628,50 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -668,54 +692,62 @@
         <f>D2/E2</f>
         <v>0.19334619093539054</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <f>D2/$C$24</f>
         <v>3.9317580154917146E-2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="17">
         <v>1.7755970812498716</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="18">
         <v>96</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="16">
+        <f>IF($C2=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+        <v>2.8134794623747461</v>
+      </c>
+      <c r="K2" s="12">
+        <f>((H2-J2)/H2)*100</f>
+        <v>-58.452584321342336</v>
+      </c>
+      <c r="L2" s="16">
+        <f>((H2-$C$27)/H2)*100</f>
+        <v>-62.657842844467893</v>
+      </c>
+      <c r="M2" s="18">
+        <f>IF($C2=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <v>112.75</v>
+      </c>
+      <c r="N2" s="12">
+        <f t="shared" ref="N2:N21" si="1">((I2-M2)/M2)*100</f>
+        <v>-14.855875831485587</v>
+      </c>
+      <c r="O2" s="16">
+        <f>((I2-$C$26)/I2)*100</f>
+        <v>34.114583333333329</v>
+      </c>
+      <c r="P2" s="5">
         <f>IF($C2=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
         <v>518.5</v>
       </c>
-      <c r="K2" s="5">
-        <f>((H2-J2)/H2)*100</f>
-        <v>-29101.444712615739</v>
-      </c>
-      <c r="L2" s="15">
-        <f>((H2-$C$27)/H2)*100</f>
-        <v>-62.657842844467893</v>
-      </c>
-      <c r="M2" s="7">
-        <f>IF($C2=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
-        <v>112.75</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:N21" si="1">((I2-M2)/M2)*100</f>
-        <v>-14.855875831485587</v>
-      </c>
-      <c r="O2" s="15">
-        <f>((I2-$C$26)/I2)*100</f>
-        <v>34.114583333333329</v>
-      </c>
-      <c r="P2" s="7">
-        <f>IF($C2=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C2=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C2=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C2=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
-        <v>518.5</v>
-      </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="12">
         <f>((D2-P2)/D2)*100</f>
         <v>-29.301745635910226</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="16">
         <f>((D2-$C$25)/D2)*100</f>
         <v>-27.169576059850371</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="19">
+        <f>PRODUCT((K2*0.3),(N2*0.6),(Q2*0.1))</f>
+        <v>-458.00263538801636</v>
+      </c>
+      <c r="T2" s="19">
+        <f>PRODUCT(K2,N2,Q2)</f>
+        <v>-25444.590854889801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -736,54 +768,62 @@
         <f t="shared" ref="F3:F21" si="2">D3/E3</f>
         <v>0.17187193085837754</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G21" si="3">D3/$C$24</f>
         <v>8.5792724776938917E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="17">
         <v>4.5522374414238289</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="18">
         <v>59</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J2:J21" si="4">IF($C3=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J21" si="4">IF($C3=4,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($H$2:$H$21,$C$2:$C$21,1)))))</f>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:K21" si="5">((H3-J3)/H3)*100</f>
         <v>43.690434902495817</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="16">
         <f t="shared" ref="L3:L21" si="6">((H3-$C$27)/H3)*100</f>
         <v>36.555420337058855</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="18">
         <f t="shared" ref="M2:M21" si="7">IF($C3=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="12">
         <f t="shared" si="1"/>
         <v>19.594594594594589</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="16">
         <f t="shared" ref="O3:O21" si="8">((I3-$C$26)/I3)*100</f>
         <v>-7.2033898305084749</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:P21" si="9">IF($C3=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="12">
         <f t="shared" ref="Q3:Q21" si="10">((D3-P3)/D3)*100</f>
         <v>56.495238095238101</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="16">
         <f t="shared" ref="R3:R21" si="11">((D3-$C$25)/D3)*100</f>
         <v>41.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="19">
+        <f t="shared" ref="S3:S21" si="12">PRODUCT((K3*0.3),(N3*0.6),(Q3*0.1))</f>
+        <v>870.57661800075846</v>
+      </c>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:T21" si="13">PRODUCT(K3,N3,Q3)</f>
+        <v>48365.367666708808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -804,54 +844,62 @@
         <f t="shared" si="2"/>
         <v>0.16676487919858574</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <f t="shared" si="3"/>
         <v>8.3243455240709877E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="17">
         <v>2.1726263991295083</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="18">
         <v>79</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="16">
         <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <f t="shared" si="5"/>
         <v>-43.013830495658148</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="16">
         <f t="shared" si="6"/>
         <v>-32.933481390429115</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="18">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="12">
         <f t="shared" si="1"/>
         <v>-2.4691358024691357</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
         <f t="shared" si="8"/>
         <v>19.936708860759495</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <f t="shared" si="9"/>
         <v>561.4</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="12">
         <f t="shared" si="10"/>
         <v>33.875147232037698</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="16">
         <f t="shared" si="11"/>
         <v>39.93521790341579</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="19">
+        <f t="shared" si="12"/>
+        <v>64.75999293574813</v>
+      </c>
+      <c r="T4" s="19">
+        <f t="shared" si="13"/>
+        <v>3597.7773853193403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -872,54 +920,62 @@
         <f t="shared" si="2"/>
         <v>0.25346077785102178</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <f t="shared" si="3"/>
         <v>7.5399548975389738E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="17">
         <v>4.2314834119637954</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="18">
         <v>24</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="16">
         <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="12">
         <f t="shared" si="5"/>
         <v>26.299186265424527</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="16">
         <f t="shared" si="6"/>
         <v>31.746207445723858</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="18">
         <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="12">
         <f t="shared" si="1"/>
         <v>6.1946902654867193</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="16">
         <f t="shared" si="8"/>
         <v>-163.54166666666669</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <f t="shared" si="9"/>
         <v>606.79999999999995</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="12">
         <f t="shared" si="10"/>
         <v>21.0923276983095</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="16">
         <f t="shared" si="11"/>
         <v>33.686605981794536</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="19">
+        <f t="shared" si="12"/>
+        <v>61.852737096071642</v>
+      </c>
+      <c r="T5" s="19">
+        <f t="shared" si="13"/>
+        <v>3436.2631720039803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -933,61 +989,69 @@
         <v>521</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E21" si="12">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
+        <f t="shared" ref="E6:E21" si="14">IF($C6=4,SUMIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=1,SUMIFS($D$2:$D$21,$C$2:$C$21,1),SUMIFS($D$2:$D$21,$C$2:$C$21,3)+SUMIFS($D$2:$D$21,$C$2:$C$21,2)))</f>
         <v>2074</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>0.25120540019286403</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <f t="shared" si="3"/>
         <v>5.108343955289734E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="17">
         <v>3.17282992583243</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="18">
         <v>131</v>
       </c>
-      <c r="J6" s="5">
-        <f>IF($C6=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C6=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C6=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C6=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
-        <v>518.5</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="16">
+        <f t="shared" si="4"/>
+        <v>2.8134794623747461</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="5"/>
-        <v>-16241.878137825663</v>
-      </c>
-      <c r="L6" s="15">
+        <v>11.325865925933737</v>
+      </c>
+      <c r="L6" s="16">
         <f t="shared" si="6"/>
         <v>8.9724952965250786</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="18">
         <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="12">
         <f t="shared" si="1"/>
         <v>16.186252771618626</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="16">
         <f t="shared" si="8"/>
         <v>51.717557251908396</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <f t="shared" si="9"/>
         <v>518.5</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="12">
         <f t="shared" si="10"/>
         <v>0.47984644913627633</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="16">
         <f t="shared" si="11"/>
         <v>2.1209213051823439</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="19">
+        <f t="shared" si="12"/>
+        <v>1.583406870068746</v>
+      </c>
+      <c r="T6" s="19">
+        <f t="shared" si="13"/>
+        <v>87.967048337152534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1001,61 +1065,69 @@
         <v>570</v>
       </c>
       <c r="E7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2074</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>0.27483124397299902</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <f t="shared" si="3"/>
         <v>5.5887832140405921E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="17">
         <v>3.152782474941854</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="18">
         <v>117</v>
       </c>
-      <c r="J7" s="5">
-        <f>IF($C7=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C7=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C7=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C7=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
-        <v>518.5</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="16">
+        <f t="shared" si="4"/>
+        <v>2.8134794623747461</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="5"/>
-        <v>-16345.790476222515</v>
-      </c>
-      <c r="L7" s="15">
+        <v>10.7620178449947</v>
+      </c>
+      <c r="L7" s="16">
         <f t="shared" si="6"/>
         <v>8.3936829475163712</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="18">
         <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="12">
         <f t="shared" si="1"/>
         <v>3.7694013303769403</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="16">
         <f t="shared" si="8"/>
         <v>45.940170940170937</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <f t="shared" si="9"/>
         <v>518.5</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="12">
         <f t="shared" si="10"/>
         <v>9.0350877192982466</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="16">
         <f t="shared" si="11"/>
         <v>10.535087719298247</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="19">
+        <f t="shared" si="12"/>
+        <v>6.5973718916743112</v>
+      </c>
+      <c r="T7" s="19">
+        <f t="shared" si="13"/>
+        <v>366.5206606485728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1069,61 +1141,69 @@
         <v>582</v>
       </c>
       <c r="E8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2074</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>0.28061716489874639</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <f t="shared" si="3"/>
         <v>5.7064418080203939E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="17">
         <v>3.1527083674748275</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>107</v>
       </c>
-      <c r="J8" s="5">
-        <f>IF($C8=4,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,4),IF($C8=3,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,3),IF($C8=2,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,2),IF($C8=1,AVERAGEIFS($D$2:$D$21,$C$2:$C$21,1)))))</f>
-        <v>518.5</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J8" s="16">
+        <f t="shared" si="4"/>
+        <v>2.8134794623747461</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="5"/>
-        <v>-16346.177050473412</v>
-      </c>
-      <c r="L8" s="15">
+        <v>10.759920219699481</v>
+      </c>
+      <c r="L8" s="16">
         <f t="shared" si="6"/>
         <v>8.3915296522130607</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="18">
         <f t="shared" si="7"/>
         <v>112.75</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="12">
         <f t="shared" si="1"/>
         <v>-5.0997782705099777</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="16">
         <f t="shared" si="8"/>
         <v>40.887850467289724</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <f t="shared" si="9"/>
         <v>518.5</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="12">
         <f t="shared" si="10"/>
         <v>10.9106529209622</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="16">
         <f t="shared" si="11"/>
         <v>12.379725085910655</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="19">
+        <f t="shared" si="12"/>
+        <v>-10.776645356850363</v>
+      </c>
+      <c r="T8" s="19">
+        <f t="shared" si="13"/>
+        <v>-598.70251982502009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1137,61 +1217,69 @@
         <v>99</v>
       </c>
       <c r="E9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>1.9446081319976428E-2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <f t="shared" si="3"/>
         <v>9.7068340033336607E-3</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="17">
         <v>4.873631814816763</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="18">
         <v>82</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="16">
         <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="12">
         <f t="shared" si="5"/>
         <v>36.245568934677145</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="16">
         <f t="shared" si="6"/>
         <v>40.739308595494251</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="18">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="12">
         <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <f t="shared" si="9"/>
         <v>561.4</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="12">
         <f t="shared" si="10"/>
         <v>-467.07070707070704</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="16">
         <f t="shared" si="11"/>
         <v>-415.1010101010101</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="19">
+        <f t="shared" si="12"/>
+        <v>-376.20541134443789</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" si="13"/>
+        <v>-20900.300630246551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1205,61 +1293,69 @@
         <v>288</v>
       </c>
       <c r="E10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
         <v>5.6570418385385977E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <f t="shared" si="3"/>
         <v>2.8238062555152467E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="17">
         <v>3.529749359759434</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="18">
         <v>82</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="16">
         <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="12">
         <f t="shared" si="5"/>
         <v>11.972326670617745</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="16">
         <f t="shared" si="6"/>
         <v>18.17696908181567</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="18">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="12">
         <f t="shared" si="1"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="16">
         <f t="shared" si="8"/>
         <v>22.865853658536587</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <f t="shared" si="9"/>
         <v>561.4</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="12">
         <f t="shared" si="10"/>
         <v>-94.930555555555557</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="16">
         <f t="shared" si="11"/>
         <v>-77.065972222222229</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="19">
+        <f t="shared" si="12"/>
+        <v>-25.256436047429716</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" si="13"/>
+        <v>-1403.1353359683176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1273,61 +1369,69 @@
         <v>933</v>
       </c>
       <c r="E11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>0.18326458456098998</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <f t="shared" si="3"/>
         <v>9.147955681929601E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="17">
         <v>2.5081774563495625</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="18">
         <v>85</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="16">
         <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="12">
         <f t="shared" si="5"/>
         <v>-23.88103672206655</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="16">
         <f t="shared" si="6"/>
         <v>-15.149265162993174</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="18">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="12">
         <f t="shared" si="1"/>
         <v>4.9382716049382713</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="16">
         <f t="shared" si="8"/>
         <v>25.588235294117645</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <f t="shared" si="9"/>
         <v>561.4</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="12">
         <f t="shared" si="10"/>
         <v>39.828510182207935</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="16">
         <f t="shared" si="11"/>
         <v>45.342979635584143</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="19">
+        <f t="shared" si="12"/>
+        <v>-84.546321266356372</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="13"/>
+        <v>-4697.0178481309094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1341,61 +1445,69 @@
         <v>322</v>
       </c>
       <c r="E12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>6.3248870555882936E-2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <f t="shared" si="3"/>
         <v>3.1571722717913524E-2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="17">
         <v>1.6224304587513796</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="18">
         <v>50</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="16">
         <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="12">
         <f t="shared" si="5"/>
         <v>-57.994143394241803</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="16">
         <f t="shared" si="6"/>
         <v>-78.013664277055668</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="18">
         <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="12">
         <f t="shared" si="1"/>
         <v>1.3513513513513467</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="16">
         <f t="shared" si="8"/>
         <v>-26.5</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="5">
         <f t="shared" si="9"/>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="12">
         <f t="shared" si="10"/>
         <v>-18.219461697722572</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="16">
         <f t="shared" si="11"/>
         <v>-58.369565217391305</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="19">
+        <f t="shared" si="12"/>
+        <v>25.70161802262848</v>
+      </c>
+      <c r="T12" s="19">
+        <f t="shared" si="13"/>
+        <v>1427.8676679238044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1409,61 +1521,69 @@
         <v>497</v>
       </c>
       <c r="E13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>9.7623256727558436E-2</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <f t="shared" si="3"/>
         <v>4.8730267673301304E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="17">
         <v>3.7159749207846264</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="18">
         <v>53</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="16">
         <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="12">
         <f t="shared" si="5"/>
         <v>31.018234511381991</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="16">
         <f t="shared" si="6"/>
         <v>22.277518779363991</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="18">
         <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="12">
         <f t="shared" si="1"/>
         <v>7.4324324324324271</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <f t="shared" si="8"/>
         <v>-19.339622641509436</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <f t="shared" si="9"/>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="12">
         <f t="shared" si="10"/>
         <v>23.407109322602278</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="16">
         <f t="shared" si="11"/>
         <v>-2.6056338028168988</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="19">
+        <f t="shared" si="12"/>
+        <v>97.133342451353002</v>
+      </c>
+      <c r="T13" s="19">
+        <f t="shared" si="13"/>
+        <v>5396.2968028529449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1477,61 +1597,69 @@
         <v>463</v>
       </c>
       <c r="E14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>9.0944804557061484E-2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="14">
         <f t="shared" si="3"/>
         <v>4.5396607510540248E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="17">
         <v>2.3177750217110398</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="18">
         <v>35</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="16">
         <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="12">
         <f t="shared" si="5"/>
         <v>-10.595078532651714</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="16">
         <f t="shared" si="6"/>
         <v>-24.608639014423055</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="18">
         <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="12">
         <f t="shared" si="1"/>
         <v>-29.054054054054056</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="16">
         <f t="shared" si="8"/>
         <v>-80.714285714285722</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <f t="shared" si="9"/>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="12">
         <f t="shared" si="10"/>
         <v>17.782577393808491</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="16">
         <f t="shared" si="11"/>
         <v>-10.140388768898486</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="19">
+        <f t="shared" si="12"/>
+        <v>98.532189389376413</v>
+      </c>
+      <c r="T14" s="19">
+        <f t="shared" si="13"/>
+        <v>5474.0105216320235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1545,61 +1673,69 @@
         <v>941</v>
       </c>
       <c r="E15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3034</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>0.31015161502966382</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="14">
         <f t="shared" si="3"/>
         <v>9.2263947445828026E-2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="17">
         <v>1.1372420849892766</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="18">
         <v>16</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="16">
         <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="12">
         <f t="shared" si="5"/>
         <v>-174.22813038881711</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="16">
         <f t="shared" si="6"/>
         <v>-153.9606956242398</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="18">
         <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="12">
         <f t="shared" si="1"/>
         <v>-29.203539823008857</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="16">
         <f t="shared" si="8"/>
         <v>-295.3125</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <f t="shared" si="9"/>
         <v>606.79999999999995</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="12">
         <f t="shared" si="10"/>
         <v>35.515409139213602</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="16">
         <f t="shared" si="11"/>
         <v>45.807651434644001</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="19">
+        <f t="shared" si="12"/>
+        <v>3252.6931863588879</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="13"/>
+        <v>180705.17701993819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1613,61 +1749,69 @@
         <v>346</v>
       </c>
       <c r="E16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3034</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>0.11404087013843112</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <f t="shared" si="3"/>
         <v>3.392489459750956E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="17">
         <v>3.1414585849407013</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="18">
         <v>27</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="16">
         <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="12">
         <f t="shared" si="5"/>
         <v>0.72644208614439842</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="16">
         <f t="shared" si="6"/>
         <v>8.0634733236538185</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="18">
         <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="12">
         <f t="shared" si="1"/>
         <v>19.469026548672559</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="16">
         <f t="shared" si="8"/>
         <v>-134.25925925925927</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <f t="shared" si="9"/>
         <v>606.79999999999995</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="12">
         <f t="shared" si="10"/>
         <v>-75.37572254335258</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="16">
         <f t="shared" si="11"/>
         <v>-47.384393063583815</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="19">
+        <f t="shared" si="12"/>
+        <v>-19.188862356723558</v>
+      </c>
+      <c r="T16" s="19">
+        <f t="shared" si="13"/>
+        <v>-1066.0479087068643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1681,61 +1825,69 @@
         <v>537</v>
       </c>
       <c r="E17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3034</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>0.17699406723796968</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <f t="shared" si="3"/>
         <v>5.2652220805961367E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="17">
         <v>2.8218070140850111</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="18">
         <v>28</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="16">
         <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="12">
         <f t="shared" si="5"/>
         <v>-10.519170591548548</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="16">
         <f t="shared" si="6"/>
         <v>-2.3510075477955894</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="18">
         <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="12">
         <f t="shared" si="1"/>
         <v>23.893805309734507</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="16">
         <f t="shared" si="8"/>
         <v>-125.89285714285714</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <f t="shared" si="9"/>
         <v>606.79999999999995</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="12">
         <f t="shared" si="10"/>
         <v>-12.998137802607069</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="16">
         <f t="shared" si="11"/>
         <v>5.0372439478584754</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="19">
+        <f t="shared" si="12"/>
+        <v>58.805840401935171</v>
+      </c>
+      <c r="T17" s="19">
+        <f t="shared" si="13"/>
+        <v>3266.9911334408425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1749,61 +1901,69 @@
         <v>638</v>
       </c>
       <c r="E18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>0.12531919072873698</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="14">
         <f t="shared" si="3"/>
         <v>6.2555152465928035E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="17">
         <v>2.451596148719712</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="18">
         <v>77</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="16">
         <f t="shared" si="4"/>
         <v>3.1071562357549962</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="12">
         <f t="shared" si="5"/>
         <v>-26.740133662619552</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="16">
         <f t="shared" si="6"/>
         <v>-17.806838270595339</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="18">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="12">
         <f t="shared" si="1"/>
         <v>-4.9382716049382713</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="16">
         <f t="shared" si="8"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <f t="shared" si="9"/>
         <v>561.4</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="12">
         <f t="shared" si="10"/>
         <v>12.006269592476492</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="16">
         <f t="shared" si="11"/>
         <v>20.070532915360502</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="19">
+        <f t="shared" si="12"/>
+        <v>28.537711439312545</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="13"/>
+        <v>1585.4284132951416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1817,61 +1977,69 @@
         <v>441</v>
       </c>
       <c r="E19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3034</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
         <v>0.14535266974291364</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <f t="shared" si="3"/>
         <v>4.3239533287577216E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="17">
         <v>4.2611974423256953</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="18">
         <v>18</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="16">
         <f t="shared" si="4"/>
         <v>3.1186377076608958</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="12">
         <f t="shared" si="5"/>
         <v>26.813114156972933</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="16">
         <f t="shared" si="6"/>
         <v>32.222152363020548</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="18">
         <f t="shared" si="7"/>
         <v>22.6</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="12">
         <f t="shared" si="1"/>
         <v>-20.353982300884958</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="16">
         <f t="shared" si="8"/>
         <v>-251.38888888888889</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <f t="shared" si="9"/>
         <v>606.79999999999995</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="12">
         <f t="shared" si="10"/>
         <v>-37.596371882086153</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="16">
         <f t="shared" si="11"/>
         <v>-15.634920634920633</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="19">
+        <f t="shared" si="12"/>
+        <v>369.33042993028914</v>
+      </c>
+      <c r="T19" s="19">
+        <f t="shared" si="13"/>
+        <v>20518.3572183494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1885,61 +2053,69 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>6.6784521704969556E-3</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="14">
         <f t="shared" si="3"/>
         <v>3.3336601627610551E-3</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="17">
         <v>1.3671934185660692</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="18">
         <v>62</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="16">
         <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="12">
         <f t="shared" si="5"/>
         <v>-87.489573213421437</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="16">
         <f t="shared" si="6"/>
         <v>-111.24647549865354</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="18">
         <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="12">
         <f t="shared" si="1"/>
         <v>25.67567567567567</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="16">
         <f t="shared" si="8"/>
         <v>-2.0161290322580645</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="5">
         <f t="shared" si="9"/>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="12">
         <f t="shared" si="10"/>
         <v>-1019.607843137255</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="16">
         <f t="shared" si="11"/>
         <v>-1399.8529411764705</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="19">
+        <f t="shared" si="12"/>
+        <v>41227.201113605901</v>
+      </c>
+      <c r="T20" s="19">
+        <f t="shared" si="13"/>
+        <v>2290400.0618669945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1953,61 +2129,71 @@
         <v>93</v>
       </c>
       <c r="E21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5091</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>1.8267530936947555E-2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="14">
         <f t="shared" si="3"/>
         <v>9.11854103343465E-3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="17">
         <v>1.8044593715921153</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="18">
         <v>37</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="16">
         <f t="shared" si="4"/>
         <v>2.5633451054715097</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="12">
         <f t="shared" si="5"/>
         <v>-42.056127493178877</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="16">
         <f t="shared" si="6"/>
         <v>-60.056134011047135</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="18">
         <f t="shared" si="7"/>
         <v>49.333333333333336</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="12">
         <f t="shared" si="1"/>
         <v>-25.000000000000007</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="16">
         <f t="shared" si="8"/>
         <v>-70.945945945945937</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <f t="shared" si="9"/>
         <v>380.66666666666669</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="12">
         <f t="shared" si="10"/>
         <v>-309.31899641577064</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="16">
         <f t="shared" si="11"/>
         <v>-448.33333333333331</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="19">
+        <f t="shared" si="12"/>
+        <v>-5853.9416171957073</v>
+      </c>
+      <c r="T21" s="19">
+        <f t="shared" si="13"/>
+        <v>-325218.97873309487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2016,38 +2202,48 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <f>AVERAGE(D2:D21)</f>
         <v>509.95</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <f>AVERAGE(I2:I21)</f>
         <v>63.25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <f>AVERAGE(H2:H21)</f>
         <v>2.8881479099703751</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I29" s="7"/>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="18"/>
+      <c r="S29" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O29" xr:uid="{7F25F33C-E5C3-944A-8FA2-F526FEA67BB2}"/>
+  <autoFilter ref="A1:O29" xr:uid="{7F25F33C-E5C3-944A-8FA2-F526FEA67BB2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/dummy_metrics-analytics.xlsx
+++ b/dummy_metrics-analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamzino/upenn/Projects/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057DE11-7048-5141-86F9-3C49758D6CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36E6CB-D6F2-6143-8C7F-E44E90FF678D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{ADAF1DAA-1E8B-B148-BB34-F0E835D49DE3}"/>
   </bookViews>
@@ -585,8 +585,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -802,7 +802,7 @@
         <v>36.555420337058855</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" ref="M2:M21" si="7">IF($C3=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
+        <f t="shared" ref="M3:M21" si="7">IF($C3=4,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,4),IF($C3=3,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,3),IF($C3=2,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,2),IF($C3=1,AVERAGEIFS($I$2:$I$21,$C$2:$C$21,1)))))</f>
         <v>49.333333333333336</v>
       </c>
       <c r="N3" s="13">
@@ -918,7 +918,7 @@
         <v>-6.6695474611513141</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>41.196823698247307</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>-4.3805403965486125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>16.027704233916008</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>36.241552915210832</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>-109.50918142659465</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>-94.118307005880737</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>-9.7955924652047877</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2332,7 +2332,7 @@
   <autoFilter ref="A1:O29" xr:uid="{7F25F33C-E5C3-944A-8FA2-F526FEA67BB2}">
     <filterColumn colId="2">
       <filters>
-        <filter val="1"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
